--- a/Bài Test với máy ảo.xlsx
+++ b/Bài Test với máy ảo.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TÀI LIỆU NÂNG CẤP WINSERVER_2012_TO_2022\UpdateWinServer2012to2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3C707F-E154-4B85-A3AB-69DF23AB13F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A425CDE-E217-474B-BD28-1B6D5B5FE5AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bài Test" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Phân biệt các chế độ Card mạng " sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Chính sách Map ổ đĩa." sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Thực hiện Test nâng cấp hệ điều hành của Server từ WinServer 2012 lên Winserver 2022 thì Server mới có giữ nguyên về cơ sở dữ liệu AD, Polycy hay không.</t>
   </si>
@@ -40,17 +43,107 @@
     <t>Phần 1: Tạo ra môi trường như hiện tại thực tế.</t>
   </si>
   <si>
-    <t>1 miền có 1 Winserver 2012 quản lý và 2 máy Client win 10</t>
-  </si>
-  <si>
     <t>Tạo ra các OU và chính sách.</t>
+  </si>
+  <si>
+    <t>1 miền có 1 Winserver 2012 quản lý và 1 máy Client win 10</t>
+  </si>
+  <si>
+    <t>Winserver 2012</t>
+  </si>
+  <si>
+    <t>.1.2</t>
+  </si>
+  <si>
+    <t>Client.(.1.9)</t>
+  </si>
+  <si>
+    <t>Bước 1:</t>
+  </si>
+  <si>
+    <t>Bước 2:</t>
+  </si>
+  <si>
+    <t>Tạo ra OU: IT và KETOAN , và các User IT, Kế toán để phân quyền cho data</t>
+  </si>
+  <si>
+    <t>Tạo ra chính sách Map ổ đĩa</t>
+  </si>
+  <si>
+    <t>Link phân quyền cho User:</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7MwSk0jJgcY</t>
+  </si>
+  <si>
+    <t>Đầu tiên là Sharing thư mục bên ngoài.</t>
+  </si>
+  <si>
+    <t>đã phân quyền thư mục thành công</t>
+  </si>
+  <si>
+    <t>bây h map ổ để tạo đường dẫn</t>
+  </si>
+  <si>
+    <t>Map ổ đĩa:</t>
+  </si>
+  <si>
+    <t>https://jotelulu.com/en-gb/support/tutorials/how-to-configure-a-gpo-for-mapping-shared-drives/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qAcbQKDJloY</t>
+  </si>
+  <si>
+    <t>Video:</t>
+  </si>
+  <si>
+    <t>Phần 2: Thực hiện cấu hình Migrate.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1fWR6aOyPg4</t>
+  </si>
+  <si>
+    <t>Phần 3:</t>
+  </si>
+  <si>
+    <t>https://answers.microsoft.com/en-us/windowserver/forum/all/server-2012-to-2022-migration/73be7bc7-d7ff-42a4-8914-049b252b65bf</t>
+  </si>
+  <si>
+    <t>Chuyển 5 Role từ PDC sang ADC.</t>
+  </si>
+  <si>
+    <t>https://khoserver.com/huong-dan-chuyen-5-fsmo-roles-tu-pdc-sang-adc/</t>
+  </si>
+  <si>
+    <t>https://blog.netwrix.com/transfer-fsmo-roles/</t>
+  </si>
+  <si>
+    <t>Cách chuyển 5 Role</t>
+  </si>
+  <si>
+    <t>Chuyển bằng giao diện</t>
+  </si>
+  <si>
+    <t>chuyển bằng câu lệnh</t>
+  </si>
+  <si>
+    <t>Link hướng dẫn chuyển 5 Role:</t>
+  </si>
+  <si>
+    <t>Kết quả vẫn OK mà, cần gì chuyển nâng cấp Server Shema nhỉ.</t>
+  </si>
+  <si>
+    <t>Không cần nâng cấp Server Schema</t>
+  </si>
+  <si>
+    <t>vấn đề nằm ở Map ổ đĩa.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,16 +151,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,14 +189,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -99,6 +234,258 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A886A4-CFD9-447B-9757-F286C3806B70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="990601"/>
+          <a:ext cx="1685926" cy="1990724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137F86CA-3DB3-4C7C-8D09-B10A5666D240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487649" y="1390650"/>
+          <a:ext cx="1057275" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DEA2895-9457-4E2D-9C9D-369F8E2BCBE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10944226" y="1966913"/>
+          <a:ext cx="4543423" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B84B22-E3B0-4A53-9336-E0F57661176A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="6953250"/>
+          <a:ext cx="704850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B84917-DBBC-4EF3-A5FB-EAB3350290E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="6962775"/>
+          <a:ext cx="685800" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -208,7 +595,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -301,7 +688,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -394,27 +781,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438796</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>105448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE46750-060C-45CE-B8C3-D05BF523FC14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A379B66-BE41-4D0E-91E0-68E7C2030E72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -430,8 +817,238 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657226" y="47625"/>
-          <a:ext cx="9067800" cy="3876675"/>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="4629796" cy="4820323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>153057</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>181483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EB59B1-9462-474B-A5E6-17EADDAA5BDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="542925"/>
+          <a:ext cx="4706007" cy="3639058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>162441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97292772-B709-43A1-A9A6-32AEE368436D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="847725"/>
+          <a:ext cx="5495925" cy="3696216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F953359-71A2-4289-A854-01B77B52D89B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6115052" y="800100"/>
+          <a:ext cx="6715124" cy="3667125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB6DA4A-60B4-492B-8E55-9BCCB3D181F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13525500" y="800100"/>
+          <a:ext cx="3667125" cy="4344006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>249212</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>10371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18108C84-EA84-4540-B80B-FBDFDC057345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="238125"/>
+          <a:ext cx="11193437" cy="6058746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -706,41 +1323,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
+      <c r="P18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" t="s">
+        <v>31</v>
+      </c>
+      <c r="S35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q21:X27"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E37" r:id="rId1" xr:uid="{3B35B103-BC5D-4E08-9F90-69CBA2C6FBF8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -779,7 +1559,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,10 +1571,76 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295AD716-A837-41D0-9922-B18AB5342DC6}">
+  <dimension ref="A6:V28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7338A4-D640-45E1-962F-8A7151AC5F08}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8053DD9-A350-4B60-B998-7AE63975F092}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,4 +1648,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1601F5FF-8F47-4589-8E6A-DD88336D8D6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bài Test với máy ảo.xlsx
+++ b/Bài Test với máy ảo.xlsx
@@ -8,19 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TÀI LIỆU NÂNG CẤP WINSERVER_2012_TO_2022\UpdateWinServer2012to2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A425CDE-E217-474B-BD28-1B6D5B5FE5AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC2B29-61EC-42B9-87B2-CE0BEF9D3C6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bài Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Phân biệt các chế độ Card mạng " sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Chính sách Map ổ đĩa." sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId8"/>
+    <sheet name="Bài Test nâng Winserver" sheetId="1" r:id="rId1"/>
+    <sheet name="Hệ điều hành của PDC" sheetId="2" r:id="rId2"/>
+    <sheet name="Chính sách Map ổ đĩa." sheetId="6" r:id="rId3"/>
+    <sheet name="Các bước nâng cấp Winserver" sheetId="7" r:id="rId4"/>
+    <sheet name="Server Schema" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,31 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
-  <si>
-    <t>Thực hiện Test nâng cấp hệ điều hành của Server từ WinServer 2012 lên Winserver 2022 thì Server mới có giữ nguyên về cơ sở dữ liệu AD, Polycy hay không.</t>
-  </si>
-  <si>
-    <t>Thực hiện</t>
-  </si>
-  <si>
-    <t>Phần 1: Tạo ra môi trường như hiện tại thực tế.</t>
-  </si>
-  <si>
-    <t>Tạo ra các OU và chính sách.</t>
-  </si>
-  <si>
-    <t>1 miền có 1 Winserver 2012 quản lý và 1 máy Client win 10</t>
-  </si>
-  <si>
-    <t>Winserver 2012</t>
-  </si>
-  <si>
-    <t>.1.2</t>
-  </si>
-  <si>
-    <t>Client.(.1.9)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Bước 1:</t>
   </si>
@@ -64,27 +37,9 @@
     <t>Bước 2:</t>
   </si>
   <si>
-    <t>Tạo ra OU: IT và KETOAN , và các User IT, Kế toán để phân quyền cho data</t>
-  </si>
-  <si>
-    <t>Tạo ra chính sách Map ổ đĩa</t>
-  </si>
-  <si>
-    <t>Link phân quyền cho User:</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=7MwSk0jJgcY</t>
   </si>
   <si>
-    <t>Đầu tiên là Sharing thư mục bên ngoài.</t>
-  </si>
-  <si>
-    <t>đã phân quyền thư mục thành công</t>
-  </si>
-  <si>
-    <t>bây h map ổ để tạo đường dẫn</t>
-  </si>
-  <si>
     <t>Map ổ đĩa:</t>
   </si>
   <si>
@@ -103,57 +58,104 @@
     <t>https://www.youtube.com/watch?v=1fWR6aOyPg4</t>
   </si>
   <si>
-    <t>Phần 3:</t>
-  </si>
-  <si>
-    <t>https://answers.microsoft.com/en-us/windowserver/forum/all/server-2012-to-2022-migration/73be7bc7-d7ff-42a4-8914-049b252b65bf</t>
-  </si>
-  <si>
-    <t>Chuyển 5 Role từ PDC sang ADC.</t>
-  </si>
-  <si>
     <t>https://khoserver.com/huong-dan-chuyen-5-fsmo-roles-tu-pdc-sang-adc/</t>
   </si>
   <si>
     <t>https://blog.netwrix.com/transfer-fsmo-roles/</t>
   </si>
   <si>
-    <t>Cách chuyển 5 Role</t>
-  </si>
-  <si>
     <t>Chuyển bằng giao diện</t>
   </si>
   <si>
     <t>chuyển bằng câu lệnh</t>
   </si>
   <si>
-    <t>Link hướng dẫn chuyển 5 Role:</t>
-  </si>
-  <si>
-    <t>Kết quả vẫn OK mà, cần gì chuyển nâng cấp Server Shema nhỉ.</t>
-  </si>
-  <si>
-    <t>Không cần nâng cấp Server Schema</t>
-  </si>
-  <si>
-    <t>vấn đề nằm ở Map ổ đĩa.</t>
+    <t xml:space="preserve">Thực hiện Test nâng cấp hệ điều hành của Server từ WinServer 2012 lên Winserver 2022 </t>
+  </si>
+  <si>
+    <t>thì Server mới có giữ nguyên về cơ sở dữ liệu AD, Polycy hay không?</t>
+  </si>
+  <si>
+    <t>Thực hiện:</t>
+  </si>
+  <si>
+    <t>Phần 1: Giả lập  môi trường ảo như  thực tế hiện tại.</t>
+  </si>
+  <si>
+    <t>Tạo 1 miền có 1 PDC chạy Winserver 2012 quản lý  1 máy Client Win 10</t>
+  </si>
+  <si>
+    <t>PDC(Winserver 2012)</t>
+  </si>
+  <si>
+    <t>Client_Win10(.1.9)</t>
+  </si>
+  <si>
+    <t>192.168.1.2/24</t>
+  </si>
+  <si>
+    <t>Tạo ra các OU,Group và chính sách trên PDC.</t>
+  </si>
+  <si>
+    <t>Link phân quyền NTFS cho User:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**  Tạo ra OU, Group, User: IT và KETOAN , và các User IT, Kế toán </t>
+  </si>
+  <si>
+    <t>** Policy:</t>
+  </si>
+  <si>
+    <t>Tạo chính sách chặn USB:</t>
+  </si>
+  <si>
+    <t>Tạo chính sách yêu cầu đổi mật khẩu.vv</t>
+  </si>
+  <si>
+    <t>Map ổ đĩa từ ADC xuống.</t>
+  </si>
+  <si>
+    <t>Triển khai cấu hình HomePage</t>
+  </si>
+  <si>
+    <t>Dựng ADDC chạy WinServer2022</t>
+  </si>
+  <si>
+    <t>192.168.1.3/24</t>
+  </si>
+  <si>
+    <t>ADC(Winserver 2022)</t>
+  </si>
+  <si>
+    <t>Tạo ra chính sách Map ổ đĩa từ ADC</t>
+  </si>
+  <si>
+    <t>Chuyển 5 Role từ PDC 2012 sang ADC 2022</t>
+  </si>
+  <si>
+    <t>Link hướng dẫn:</t>
+  </si>
+  <si>
+    <t>Link 1: có cả chuyển 5 Role khi PDC đã chết.</t>
+  </si>
+  <si>
+    <t>Link 2:</t>
+  </si>
+  <si>
+    <t>Thao tác nâng cấp Server Shema để làm gì.</t>
+  </si>
+  <si>
+    <t>cũng có nhắc đến khái niệm server schma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,22 +168,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -204,17 +254,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -237,15 +428,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -269,8 +460,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9258300" y="990601"/>
-          <a:ext cx="1685926" cy="1990724"/>
+          <a:off x="11277599" y="838201"/>
+          <a:ext cx="1238251" cy="1495424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -281,16 +472,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -313,8 +504,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15487649" y="1390650"/>
-          <a:ext cx="1057275" cy="1152525"/>
+          <a:off x="14592300" y="1304926"/>
+          <a:ext cx="904876" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -325,16 +516,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -351,9 +542,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10944226" y="1966913"/>
-          <a:ext cx="4543423" cy="19050"/>
+        <a:xfrm>
+          <a:off x="12515850" y="1585913"/>
+          <a:ext cx="2076450" cy="252413"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -378,16 +569,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -401,9 +592,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5381625" y="6953250"/>
-          <a:ext cx="704850" cy="9525"/>
+        <a:xfrm flipV="1">
+          <a:off x="3667125" y="6467475"/>
+          <a:ext cx="590550" cy="95250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -431,15 +622,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -455,13 +646,114 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5362575" y="6962775"/>
-          <a:ext cx="685800" cy="409575"/>
+          <a:off x="3648075" y="6581775"/>
+          <a:ext cx="571500" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0F2673-BC96-4C7C-A1DE-3A66BDAB5600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972426" y="3257549"/>
+          <a:ext cx="1600200" cy="1409909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19154</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC5A3AD-A82D-4EC3-A1DE-C99E13D29701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9572626" y="1585913"/>
+          <a:ext cx="1704973" cy="2376591"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -489,14 +781,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>221627</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>88278</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>153671</xdr:rowOff>
     </xdr:to>
@@ -521,7 +813,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1362074" y="0"/>
+          <a:off x="619125" y="0"/>
           <a:ext cx="17147553" cy="9107171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -596,285 +888,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19436</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94127CD7-7CD9-4CD2-A970-57B16E52F201}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="114300"/>
-          <a:ext cx="12125325" cy="2762636"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>163546</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>57813</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0363AE6C-1AFE-424C-B702-C0BEB87C3491}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="133350" y="3114675"/>
-          <a:ext cx="11612596" cy="4753638"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374FD17A-AAB2-4F20-A996-EC1746CEE001}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247651" y="247651"/>
-          <a:ext cx="8353424" cy="2514600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152843</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DAD6F9A-3BD7-4976-B69A-09071BF31783}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="3076575"/>
-          <a:ext cx="10448925" cy="3172268"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438796</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>105448</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A379B66-BE41-4D0E-91E0-68E7C2030E72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="238125"/>
-          <a:ext cx="4629796" cy="4820323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>153057</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>181483</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EB59B1-9462-474B-A5E6-17EADDAA5BDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7639050" y="542925"/>
-          <a:ext cx="4706007" cy="3639058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1011,20 +1024,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>249212</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>10371</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>181821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1047,8 +1060,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="638175" y="238125"/>
-          <a:ext cx="11193437" cy="6058746"/>
+          <a:off x="133351" y="219075"/>
+          <a:ext cx="11391900" cy="6058746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE72C1A-D9DF-48EF-BD7C-0B9593DECE26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="219075"/>
+          <a:ext cx="8715375" cy="4734586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1323,204 +1385,1045 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA39"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="S12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="11"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z13" s="9"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="S14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="14"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="AA16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="19"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="19"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="19"/>
+    </row>
+    <row r="23" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="19"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="19"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="19"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="19"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="19"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="19"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="19"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="19"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="19"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="Q21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
-      <c r="O35" t="s">
-        <v>31</v>
-      </c>
-      <c r="S35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K39" t="s">
-        <v>30</v>
-      </c>
-      <c r="O39" t="s">
-        <v>33</v>
-      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="19"/>
+    </row>
+    <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+    </row>
+    <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+    </row>
+    <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+    </row>
+    <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+    </row>
+    <row r="37" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+    </row>
+    <row r="38" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+    </row>
+    <row r="39" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+    </row>
+    <row r="40" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="Q21:X27"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S14:U15"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N25:P26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E37" r:id="rId1" xr:uid="{3B35B103-BC5D-4E08-9F90-69CBA2C6FBF8}"/>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{3B35B103-BC5D-4E08-9F90-69CBA2C6FBF8}"/>
+    <hyperlink ref="A28" r:id="rId2" xr:uid="{00C85AE1-58FB-4E44-8EAD-0F7829AA0F0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1540,26 +2443,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521F2AC-875D-4B64-B810-21B34137A7E7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7338A4-D640-45E1-962F-8A7151AC5F08}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D22:D23"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F09CE5-4784-410D-8136-78100B6A3325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8053DD9-A350-4B60-B998-7AE63975F092}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,94 +2493,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295AD716-A837-41D0-9922-B18AB5342DC6}">
-  <dimension ref="A6:V28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4C6410-9535-4DA6-A829-A4C27E4B8D6C}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>14</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7338A4-D640-45E1-962F-8A7151AC5F08}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8053DD9-A350-4B60-B998-7AE63975F092}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1601F5FF-8F47-4589-8E6A-DD88336D8D6F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Bài Test với máy ảo.xlsx
+++ b/Bài Test với máy ảo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TÀI LIỆU NÂNG CẤP WINSERVER_2012_TO_2022\UpdateWinServer2012to2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC2B29-61EC-42B9-87B2-CE0BEF9D3C6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36598A5B-3EE4-4F7E-B552-B27403F92228}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bài Test nâng Winserver" sheetId="1" r:id="rId1"/>
@@ -361,13 +361,15 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,8 +406,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -892,15 +892,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>162441</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -923,8 +923,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="847725"/>
-          <a:ext cx="5495925" cy="3696216"/>
+          <a:off x="19051" y="409575"/>
+          <a:ext cx="4933950" cy="3381375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -936,15 +936,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>47627</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -967,8 +967,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6115052" y="800100"/>
-          <a:ext cx="6715124" cy="3667125"/>
+          <a:off x="5600702" y="390525"/>
+          <a:ext cx="6257923" cy="3400425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -979,16 +979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>606</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>181581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1011,7 +1011,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13525500" y="800100"/>
+          <a:off x="12420600" y="409575"/>
           <a:ext cx="3667125" cy="4344006"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1394,1028 +1394,1028 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="S12" s="10" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="S12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="8" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="S14" s="13" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="S14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="19"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="6"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="19"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="6"/>
     </row>
     <row r="22" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="19"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="6"/>
     </row>
     <row r="23" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="10" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O23" s="11"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="19"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="6"/>
     </row>
     <row r="24" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="19"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="6"/>
     </row>
     <row r="25" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="13" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="19"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="6"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="19"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="6"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="19"/>
+      <c r="B27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="6"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="19"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="6"/>
     </row>
     <row r="29" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="19"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="6"/>
     </row>
     <row r="30" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="19"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="6"/>
     </row>
     <row r="31" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="19"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="6"/>
     </row>
     <row r="32" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="19"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="6"/>
     </row>
     <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
     </row>
     <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
     </row>
     <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
     </row>
     <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
     </row>
     <row r="37" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
     </row>
     <row r="38" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
     </row>
     <row r="39" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
     </row>
     <row r="40" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N25:P26"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="Y13:Z13"/>
     <mergeCell ref="S12:U12"/>
     <mergeCell ref="S14:U15"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N25:P26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B30" r:id="rId1" xr:uid="{3B35B103-BC5D-4E08-9F90-69CBA2C6FBF8}"/>
@@ -2444,10 +2444,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7338A4-D640-45E1-962F-8A7151AC5F08}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,11 +2463,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4C6410-9535-4DA6-A829-A4C27E4B8D6C}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
